--- a/result/without_base/12/valence/s01_3.xlsx
+++ b/result/without_base/12/valence/s01_3.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.4824999868869781</v>
+        <v>0.5474999845027924</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -510,13 +510,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>5e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4050000011920929</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C2" t="n">
-        <v>5071.8974609375</v>
+        <v>41721.548828125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4846590892835097</v>
+        <v>0.5149999938227914</v>
       </c>
       <c r="E2" t="n">
-        <v>5071.978959517045</v>
+        <v>41722.62215909091</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4450000077486038</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C3" t="n">
-        <v>4969.593505859375</v>
+        <v>40969.765625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5101136348464272</v>
+        <v>0.5818181796507402</v>
       </c>
       <c r="E3" t="n">
-        <v>4969.571599786932</v>
+        <v>40967.21271306818</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4799999892711639</v>
+        <v>0.4950000047683716</v>
       </c>
       <c r="C4" t="n">
-        <v>4869.32275390625</v>
+        <v>40224.705078125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5229545371098951</v>
+        <v>0.6127272790128534</v>
       </c>
       <c r="E4" t="n">
-        <v>4869.193270596591</v>
+        <v>40220.67933238636</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,1308 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4824999868869781</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C5" t="n">
-        <v>4771.020751953125</v>
+        <v>39487.193359375</v>
       </c>
       <c r="D5" t="n">
+        <v>0.643863629211079</v>
+      </c>
+      <c r="E5" t="n">
+        <v>39482.38671875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5200000107288361</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38759.35546875</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.650681815364144</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38754.29403409091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5525000095367432</v>
+      </c>
+      <c r="C7" t="n">
+        <v>38042.380859375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6671590967611833</v>
+      </c>
+      <c r="E7" t="n">
+        <v>38036.80539772727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5399999916553497</v>
+      </c>
+      <c r="C8" t="n">
+        <v>37333.763671875</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7110227346420288</v>
+      </c>
+      <c r="E8" t="n">
+        <v>37327.66903409091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5550000071525574</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36636.6171875</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7098863666707819</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36630.6015625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5474999845027924</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35950.6328125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7298863638531078</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35944.48650568182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5449999868869781</v>
+      </c>
+      <c r="C11" t="n">
+        <v>35275.4140625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7435227253220298</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35268.90163352273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5324999839067459</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34611.10546875</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7664772759784352</v>
+      </c>
+      <c r="E12" t="n">
+        <v>34604.27059659091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.512499988079071</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33957.966796875</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7584090828895569</v>
+      </c>
+      <c r="E13" t="n">
+        <v>33951.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4974999874830246</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33314.68359375</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.773636362769387</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33308.40696022727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5550000071525574</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32683.2197265625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7907954508608038</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32676.53977272727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="C16" t="n">
+        <v>32062.80078125</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8007954575798728</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32055.81161221591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5574999749660492</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31453.2255859375</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8051136406985197</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31445.88334517046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5125000029802322</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30853.068359375</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8237499919804659</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30846.19477982954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4850000143051147</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30264.4150390625</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8249999934976752</v>
+      </c>
+      <c r="E19" t="n">
+        <v>30257.26740056818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5250000059604645</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29684.9326171875</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8357954621315002</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29678.38103693182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
         <v>0.5324999988079071</v>
       </c>
-      <c r="E5" t="n">
-        <v>4770.855158025568</v>
+      <c r="C21" t="n">
+        <v>29116.6552734375</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8532954508608038</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29109.70028409091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4949999898672104</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28557.3330078125</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8278409025885842</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28551.19939630682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5275000035762787</v>
+      </c>
+      <c r="C23" t="n">
+        <v>28008.3935546875</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.865454538301988</v>
+      </c>
+      <c r="E23" t="n">
+        <v>28002.10120738636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5275000035762787</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27469.845703125</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8562500043348833</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27463.17649147727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4600000083446503</v>
+      </c>
+      <c r="C25" t="n">
+        <v>26939.880859375</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8661363612521779</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26933.48330965909</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.512499988079071</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26419.8193359375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8604545430703596</v>
+      </c>
+      <c r="E26" t="n">
+        <v>26413.60617897727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.489999994635582</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25908.119140625</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.883068176833066</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25902.552734375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5249999761581421</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25406.5166015625</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8852272738109935</v>
+      </c>
+      <c r="E28" t="n">
+        <v>25400.97514204546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5349999964237213</v>
+      </c>
+      <c r="C29" t="n">
+        <v>24913.892578125</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8913636315952648</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24908.30149147727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4975000023841858</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24429.560546875</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8980681733651594</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24424.47034801136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5174999982118607</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23954.8017578125</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8921590880914168</v>
+      </c>
+      <c r="E31" t="n">
+        <v>23949.52024147727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5349999964237213</v>
+      </c>
+      <c r="C32" t="n">
+        <v>23488.33984375</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8749999945813959</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23483.16690340909</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4950000047683716</v>
+      </c>
+      <c r="C33" t="n">
+        <v>23030.029296875</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8945454467426647</v>
+      </c>
+      <c r="E33" t="n">
+        <v>23025.01704545454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4999999850988388</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22580.2578125</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.902272722937844</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22575.25177556818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5200000107288361</v>
+      </c>
+      <c r="C35" t="n">
+        <v>22138.328125</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9126136302947998</v>
+      </c>
+      <c r="E35" t="n">
+        <v>22133.57049005682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5149999856948853</v>
+      </c>
+      <c r="C36" t="n">
+        <v>21705.0380859375</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9197727279229597</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21700.01154119318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4975000023841858</v>
+      </c>
+      <c r="C37" t="n">
+        <v>21280.021484375</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8755681839856234</v>
+      </c>
+      <c r="E37" t="n">
+        <v>21274.57439630682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4949999898672104</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20861.005859375</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9248863675377585</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20856.47407670454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5250000059604645</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20450.298828125</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9189772822640159</v>
+      </c>
+      <c r="E39" t="n">
+        <v>20446.22159090909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5499999821186066</v>
+      </c>
+      <c r="C40" t="n">
+        <v>20047.6484375</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.923863643949682</v>
+      </c>
+      <c r="E40" t="n">
+        <v>20043.42009943182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5324999988079071</v>
+      </c>
+      <c r="C41" t="n">
+        <v>19652.31640625</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9144318212162365</v>
+      </c>
+      <c r="E41" t="n">
+        <v>19648.05912642046</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5174999833106995</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19263.884765625</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9252272844314575</v>
+      </c>
+      <c r="E42" t="n">
+        <v>19259.87606534091</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5374999940395355</v>
+      </c>
+      <c r="C43" t="n">
+        <v>18883.130859375</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9229545376517556</v>
+      </c>
+      <c r="E43" t="n">
+        <v>18878.86416903409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C44" t="n">
+        <v>18508.9638671875</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9346590854904868</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18504.81622869318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>18141.7734375</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9298863681879911</v>
+      </c>
+      <c r="E45" t="n">
+        <v>18137.69193892046</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5049999952316284</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17781.3095703125</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9220454584468495</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17777.37553267046</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5074999928474426</v>
+      </c>
+      <c r="C47" t="n">
+        <v>17427.4072265625</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9369318160143766</v>
+      </c>
+      <c r="E47" t="n">
+        <v>17423.57972301136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5175000131130219</v>
+      </c>
+      <c r="C48" t="n">
+        <v>17080.1103515625</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9363636320287531</v>
+      </c>
+      <c r="E48" t="n">
+        <v>17076.36647727273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5349999964237213</v>
+      </c>
+      <c r="C49" t="n">
+        <v>16739.189453125</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9323863603852012</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16735.60955255682</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5399999916553497</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16404.8857421875</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9311363697052002</v>
+      </c>
+      <c r="E50" t="n">
+        <v>16401.13618607954</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5300000011920929</v>
+      </c>
+      <c r="C51" t="n">
+        <v>16076.25537109375</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9184090982783925</v>
+      </c>
+      <c r="E51" t="n">
+        <v>16072.90074573864</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5399999916553497</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15754.13232421875</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9379545450210571</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15750.65953480114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5049999952316284</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15437.8525390625</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.9331818222999573</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15434.46626420455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.512499988079071</v>
+      </c>
+      <c r="C54" t="n">
+        <v>15127.337890625</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9409090876579285</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15124.12917258523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5275000035762787</v>
+      </c>
+      <c r="C55" t="n">
+        <v>14822.65087890625</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9467045556415211</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14819.57732599432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5275000035762787</v>
+      </c>
+      <c r="C56" t="n">
+        <v>14524.04052734375</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.9297727238048207</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14520.74928977273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5324999988079071</v>
+      </c>
+      <c r="C57" t="n">
+        <v>14230.71533203125</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9264772805300626</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14227.44788707386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5674999952316284</v>
+      </c>
+      <c r="C58" t="n">
+        <v>13942.47900390625</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9039772857319225</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13939.70694247159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5125000029802322</v>
+      </c>
+      <c r="C59" t="n">
+        <v>13660.25732421875</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9429545402526855</v>
+      </c>
+      <c r="E59" t="n">
+        <v>13657.17001065341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5374999940395355</v>
+      </c>
+      <c r="C60" t="n">
+        <v>13382.7919921875</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9450000036846508</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13380.0078125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.4924999922513962</v>
+      </c>
+      <c r="C61" t="n">
+        <v>13111.17919921875</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9078408967364918</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13108.17373934659</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5074999928474426</v>
+      </c>
+      <c r="C62" t="n">
+        <v>12844.13818359375</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9439772638407621</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12841.23162286932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.4950000047683716</v>
+      </c>
+      <c r="C63" t="n">
+        <v>12582.3759765625</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9405681816014376</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12579.41397372159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5550000071525574</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12325.1513671875</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9244318225167014</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12322.55743963068</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.4849999994039536</v>
+      </c>
+      <c r="C65" t="n">
+        <v>12073.109375</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9262500026009299</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12070.5009765625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4974999874830246</v>
+      </c>
+      <c r="C66" t="n">
+        <v>11826.09765625</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9352272694761102</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11823.171875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5150000005960464</v>
+      </c>
+      <c r="C67" t="n">
+        <v>11583.67236328125</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.8859090859239752</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11580.70046164773</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5300000011920929</v>
+      </c>
+      <c r="C68" t="n">
+        <v>11345.1640625</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.947954535484314</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11342.47594105114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5175000131130219</v>
+      </c>
+      <c r="C69" t="n">
+        <v>11111.6875</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9436363577842712</v>
+      </c>
+      <c r="E69" t="n">
+        <v>11108.94646661932</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5174999833106995</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10882.3779296875</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9368181824684143</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10879.83123224432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10657.59716796875</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.931931815364144</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10655.09596946023</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5199999809265137</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10437.17578125</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9294318177483298</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10434.57776988636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C73" t="n">
+        <v>10220.76318359375</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9195454608310353</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10218.29598721591</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5224999934434891</v>
+      </c>
+      <c r="C74" t="n">
+        <v>10008.78125</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.892272716218775</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10006.20481178977</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5074999928474426</v>
+      </c>
+      <c r="C75" t="n">
+        <v>9800.1171875</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9451136263934049</v>
+      </c>
+      <c r="E75" t="n">
+        <v>9797.912109375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5575000047683716</v>
+      </c>
+      <c r="C76" t="n">
+        <v>9595.92919921875</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9330681779167869</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9593.780007102272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5150000005960464</v>
+      </c>
+      <c r="C77" t="n">
+        <v>9395.61376953125</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9384090900421143</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9393.504083806818</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5399999916553497</v>
+      </c>
+      <c r="C78" t="n">
+        <v>9199.27392578125</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9211363792419434</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9197.102272727272</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5300000011920929</v>
+      </c>
+      <c r="C79" t="n">
+        <v>9006.61328125</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9185227318243547</v>
+      </c>
+      <c r="E79" t="n">
+        <v>9004.455610795454</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5399999916553497</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8817.435546875</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9267045530405912</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8815.463512073864</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5474999845027924</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8632.02099609375</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.917840914292769</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8630.164240056818</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.00819672131147541</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -681,10 +1973,10 @@
         <v>0.008474576271186441</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.00819672131147541</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -692,10 +1984,10 @@
         <v>0.008474576271186441</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.02459016393442623</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -703,10 +1995,10 @@
         <v>0.01694915254237288</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.02459016393442623</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -714,7 +2006,7 @@
         <v>0.01694915254237288</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C6" t="n">
         <v>0.03278688524590164</v>
@@ -722,10 +2014,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C7" t="n">
         <v>0.03278688524590164</v>
@@ -733,10 +2025,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C8" t="n">
         <v>0.04098360655737705</v>
@@ -744,10 +2036,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.0423728813559322</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C9" t="n">
         <v>0.04098360655737705</v>
@@ -755,13 +2047,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.0423728813559322</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07377049180327869</v>
+        <v>0.139344262295082</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -769,10 +2061,10 @@
         <v>0.0847457627118644</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07377049180327869</v>
+        <v>0.139344262295082</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -780,868 +2072,868 @@
         <v>0.0847457627118644</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09016393442622951</v>
+        <v>0.1475409836065574</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.1101694915254237</v>
+        <v>0.09322033898305085</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09016393442622951</v>
+        <v>0.1475409836065574</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.1101694915254237</v>
+        <v>0.09322033898305085</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09836065573770492</v>
+        <v>0.1885245901639344</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09836065573770492</v>
+        <v>0.1885245901639344</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1147540983606557</v>
+        <v>0.2131147540983606</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1610169491525424</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1147540983606557</v>
+        <v>0.2131147540983606</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1610169491525424</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1229508196721311</v>
+        <v>0.2868852459016393</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1779661016949153</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1229508196721311</v>
+        <v>0.2868852459016393</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1779661016949153</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1557377049180328</v>
+        <v>0.3032786885245902</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1864406779661017</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1557377049180328</v>
+        <v>0.3032786885245902</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1864406779661017</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1721311475409836</v>
+        <v>0.3114754098360656</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1949152542372881</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1721311475409836</v>
+        <v>0.3114754098360656</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1949152542372881</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C24" t="n">
-        <v>0.180327868852459</v>
+        <v>0.319672131147541</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.2033898305084746</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C25" t="n">
-        <v>0.180327868852459</v>
+        <v>0.319672131147541</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.2033898305084746</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1885245901639344</v>
+        <v>0.3360655737704918</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.211864406779661</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1885245901639344</v>
+        <v>0.3360655737704918</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.211864406779661</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2049180327868853</v>
+        <v>0.3442622950819672</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.2203389830508475</v>
+        <v>0.2627118644067797</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2049180327868853</v>
+        <v>0.3442622950819672</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2203389830508475</v>
+        <v>0.2627118644067797</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2295081967213115</v>
+        <v>0.3524590163934426</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2457627118644068</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2295081967213115</v>
+        <v>0.3524590163934426</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2457627118644068</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2377049180327869</v>
+        <v>0.3688524590163935</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2542372881355932</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2377049180327869</v>
+        <v>0.3688524590163935</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2542372881355932</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2459016393442623</v>
+        <v>0.3770491803278688</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.288135593220339</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2459016393442623</v>
+        <v>0.3770491803278688</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.288135593220339</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2622950819672131</v>
+        <v>0.3852459016393442</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.3050847457627119</v>
+        <v>0.3644067796610169</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2622950819672131</v>
+        <v>0.3852459016393442</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.3050847457627119</v>
+        <v>0.3644067796610169</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2704918032786885</v>
+        <v>0.4098360655737705</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.3135593220338983</v>
+        <v>0.4152542372881356</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2704918032786885</v>
+        <v>0.4098360655737705</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3135593220338983</v>
+        <v>0.4152542372881356</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2950819672131147</v>
+        <v>0.4344262295081967</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3305084745762712</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2950819672131147</v>
+        <v>0.4344262295081967</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3305084745762712</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3032786885245902</v>
+        <v>0.4508196721311475</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3559322033898305</v>
+        <v>0.4322033898305085</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3032786885245902</v>
+        <v>0.4508196721311475</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3559322033898305</v>
+        <v>0.4322033898305085</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3114754098360656</v>
+        <v>0.5081967213114754</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3728813559322034</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3114754098360656</v>
+        <v>0.5081967213114754</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3728813559322034</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3524590163934426</v>
+        <v>0.5163934426229508</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3813559322033898</v>
+        <v>0.4661016949152542</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3524590163934426</v>
+        <v>0.5163934426229508</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3813559322033898</v>
+        <v>0.4661016949152542</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C48" t="n">
-        <v>0.360655737704918</v>
+        <v>0.5327868852459017</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3898305084745763</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C49" t="n">
-        <v>0.360655737704918</v>
+        <v>0.5327868852459017</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3898305084745763</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3688524590163935</v>
+        <v>0.5655737704918032</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.4152542372881356</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3688524590163935</v>
+        <v>0.5655737704918032</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.4152542372881356</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.5737704918032787</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.4322033898305085</v>
+        <v>0.5338983050847458</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.5737704918032787</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4322033898305085</v>
+        <v>0.5338983050847458</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4262295081967213</v>
+        <v>0.5819672131147541</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4406779661016949</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4262295081967213</v>
+        <v>0.5819672131147541</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4406779661016949</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C56" t="n">
-        <v>0.459016393442623</v>
+        <v>0.5983606557377049</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.5508474576271186</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C57" t="n">
-        <v>0.459016393442623</v>
+        <v>0.5983606557377049</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.5508474576271186</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4672131147540984</v>
+        <v>0.6147540983606558</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.5</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4672131147540984</v>
+        <v>0.6147540983606558</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.5</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4754098360655737</v>
+        <v>0.6229508196721312</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.5677966101694916</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4754098360655737</v>
+        <v>0.6229508196721312</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.5677966101694916</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5</v>
+        <v>0.639344262295082</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.5338983050847458</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5</v>
+        <v>0.639344262295082</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5338983050847458</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5327868852459017</v>
+        <v>0.6557377049180327</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5508474576271186</v>
+        <v>0.5847457627118644</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5327868852459017</v>
+        <v>0.6557377049180327</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5508474576271186</v>
+        <v>0.5847457627118644</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.6639344262295082</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.559322033898305</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.6639344262295082</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.559322033898305</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5901639344262295</v>
+        <v>0.680327868852459</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5932203389830508</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5901639344262295</v>
+        <v>0.680327868852459</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5932203389830508</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5983606557377049</v>
+        <v>0.6967213114754098</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6016949152542372</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5983606557377049</v>
+        <v>0.6967213114754098</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6016949152542372</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6065573770491803</v>
+        <v>0.7131147540983607</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6101694915254238</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6065573770491803</v>
+        <v>0.7131147540983607</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6101694915254238</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6229508196721312</v>
+        <v>0.7540983606557377</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6186440677966102</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6229508196721312</v>
+        <v>0.7540983606557377</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6186440677966102</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6311475409836066</v>
+        <v>0.7704918032786885</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.652542372881356</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6311475409836066</v>
+        <v>0.7704918032786885</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.652542372881356</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6557377049180327</v>
+        <v>0.7786885245901639</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.6864406779661016</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6557377049180327</v>
+        <v>0.7786885245901639</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.6864406779661016</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6639344262295082</v>
+        <v>0.7950819672131147</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6864406779661016</v>
+        <v>0.7033898305084746</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6639344262295082</v>
+        <v>0.7950819672131147</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6864406779661016</v>
+        <v>0.7033898305084746</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6721311475409836</v>
+        <v>0.8032786885245902</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.7288135593220338</v>
+        <v>0.7203389830508474</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6721311475409836</v>
+        <v>0.8032786885245902</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.7288135593220338</v>
+        <v>0.7203389830508474</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6967213114754098</v>
+        <v>0.8360655737704918</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.7457627118644068</v>
+        <v>0.7542372881355932</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6967213114754098</v>
+        <v>0.8360655737704918</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7457627118644068</v>
+        <v>0.7542372881355932</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7131147540983607</v>
+        <v>0.8442622950819673</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7796610169491526</v>
+        <v>0.7711864406779662</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7131147540983607</v>
+        <v>0.8442622950819673</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7796610169491526</v>
+        <v>0.7711864406779662</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7786885245901639</v>
+        <v>0.8524590163934426</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.788135593220339</v>
+        <v>0.7966101694915254</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7786885245901639</v>
+        <v>0.8524590163934426</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.788135593220339</v>
+        <v>0.7966101694915254</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7868852459016393</v>
+        <v>0.860655737704918</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1649,10 +2941,10 @@
         <v>0.8050847457627118</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7868852459016393</v>
+        <v>0.860655737704918</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1660,10 +2952,10 @@
         <v>0.8050847457627118</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8032786885245902</v>
+        <v>0.8852459016393442</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1671,10 +2963,10 @@
         <v>0.8220338983050848</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8032786885245902</v>
+        <v>0.8852459016393442</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1682,273 +2974,196 @@
         <v>0.8220338983050848</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8114754098360656</v>
+        <v>0.8934426229508197</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.8305084745762712</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8114754098360656</v>
+        <v>0.8934426229508197</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.8305084745762712</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8278688524590164</v>
+        <v>0.9344262295081968</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.847457627118644</v>
+        <v>0.8559322033898306</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8278688524590164</v>
+        <v>0.9344262295081968</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.847457627118644</v>
+        <v>0.8559322033898306</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8524590163934426</v>
+        <v>0.9426229508196722</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8559322033898306</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8524590163934426</v>
+        <v>0.9426229508196722</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.8559322033898306</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8770491803278688</v>
+        <v>0.9508196721311475</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.8813559322033898</v>
+        <v>0.8898305084745762</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8770491803278688</v>
+        <v>0.9508196721311475</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8813559322033898</v>
+        <v>0.8898305084745762</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9016393442622951</v>
+        <v>0.9590163934426229</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8898305084745762</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9016393442622951</v>
+        <v>0.9590163934426229</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.8898305084745762</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9098360655737705</v>
+        <v>0.9672131147540983</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.8983050847457628</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9098360655737705</v>
+        <v>0.9672131147540983</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.8983050847457628</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9344262295081968</v>
+        <v>0.9754098360655737</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.9152542372881356</v>
+        <v>0.9576271186440678</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9344262295081968</v>
+        <v>0.9754098360655737</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9152542372881356</v>
+        <v>0.9576271186440678</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9426229508196722</v>
+        <v>0.9836065573770492</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.9491525423728814</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9426229508196722</v>
+        <v>0.9836065573770492</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.9491525423728814</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9508196721311475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4862461794943039</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9508196721311475</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="n">
-        <v>0.9661016949152542</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.4862461794943039</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.9754098360655737</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="n">
-        <v>0.9745762711864406</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.4862461794943039</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.9754098360655737</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="n">
-        <v>0.9745762711864406</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.4862461794943039</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.9836065573770492</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="n">
-        <v>0.9915254237288136</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.4862461794943039</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.9836065573770492</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="n">
-        <v>0.9915254237288136</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.4862461794943039</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.9918032786885246</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="n">
-        <v>1</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.4862461794943039</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.9918032786885246</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="n">
-        <v>1</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.4862461794943039</v>
-      </c>
-      <c r="C118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1963,7 +3178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1987,32 +3202,32 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.008474576271186441</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0.00819672131147541</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.03389830508474576</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.00819672131147541</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="B4" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008474576271186441</v>
+        <v>0.03389830508474576</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2020,21 +3235,21 @@
         <v>0.01639344262295082</v>
       </c>
       <c r="B5" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008474576271186441</v>
+        <v>0.0423728813559322</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="B6" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02542372881355932</v>
+        <v>0.0423728813559322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2042,513 +3257,513 @@
         <v>0.02459016393442623</v>
       </c>
       <c r="B7" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02542372881355932</v>
+        <v>0.07627118644067797</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.02459016393442623</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="B8" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.07627118644067797</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="B9" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.1016949152542373</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="B10" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.1016949152542373</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.05737704918032787</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="B11" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.1101694915254237</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.05737704918032787</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="B12" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.1101694915254237</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="B13" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.1355932203389831</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="B14" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.1355932203389831</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.09016393442622951</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="B15" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.1440677966101695</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.09016393442622951</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="B16" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1101694915254237</v>
+        <v>0.1440677966101695</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.09836065573770492</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="B17" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1101694915254237</v>
+        <v>0.1525423728813559</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.09836065573770492</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="B18" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1186440677966102</v>
+        <v>0.1525423728813559</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1229508196721311</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="B19" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1186440677966102</v>
+        <v>0.1779661016949153</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1229508196721311</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="B20" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1440677966101695</v>
+        <v>0.1779661016949153</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1475409836065574</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="B21" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1440677966101695</v>
+        <v>0.1949152542372881</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1475409836065574</v>
+        <v>0.139344262295082</v>
       </c>
       <c r="B22" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.1949152542372881</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1721311475409836</v>
+        <v>0.139344262295082</v>
       </c>
       <c r="B23" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.2033898305084746</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1721311475409836</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="B24" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1694915254237288</v>
+        <v>0.2033898305084746</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1885245901639344</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="B25" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1694915254237288</v>
+        <v>0.2288135593220339</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1885245901639344</v>
+        <v>0.1557377049180328</v>
       </c>
       <c r="B26" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1779661016949153</v>
+        <v>0.2288135593220339</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1967213114754098</v>
+        <v>0.1557377049180328</v>
       </c>
       <c r="B27" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1779661016949153</v>
+        <v>0.2457627118644068</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1967213114754098</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="B28" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1949152542372881</v>
+        <v>0.2457627118644068</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.2131147540983606</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="B29" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1949152542372881</v>
+        <v>0.2796610169491525</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2131147540983606</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="B30" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C30" t="n">
-        <v>0.211864406779661</v>
+        <v>0.2796610169491525</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2213114754098361</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="B31" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C31" t="n">
-        <v>0.211864406779661</v>
+        <v>0.2966101694915254</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2213114754098361</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="B32" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2203389830508475</v>
+        <v>0.2966101694915254</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2868852459016393</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="B33" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2203389830508475</v>
+        <v>0.3135593220338983</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2868852459016393</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="B34" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2542372881355932</v>
+        <v>0.3135593220338983</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.3032786885245902</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="B35" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2542372881355932</v>
+        <v>0.3220338983050847</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.3032786885245902</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="B36" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2711864406779661</v>
+        <v>0.3220338983050847</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="B37" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2711864406779661</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="B38" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3135593220338983</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.3360655737704918</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="B39" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3135593220338983</v>
+        <v>0.3559322033898305</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3360655737704918</v>
+        <v>0.2868852459016393</v>
       </c>
       <c r="B40" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3220338983050847</v>
+        <v>0.3559322033898305</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3442622950819672</v>
+        <v>0.2868852459016393</v>
       </c>
       <c r="B41" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3220338983050847</v>
+        <v>0.3728813559322034</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3442622950819672</v>
+        <v>0.3032786885245902</v>
       </c>
       <c r="B42" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3474576271186441</v>
+        <v>0.3728813559322034</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3688524590163935</v>
+        <v>0.3032786885245902</v>
       </c>
       <c r="B43" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3474576271186441</v>
+        <v>0.3898305084745763</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3688524590163935</v>
+        <v>0.319672131147541</v>
       </c>
       <c r="B44" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3813559322033898</v>
+        <v>0.3898305084745763</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.319672131147541</v>
       </c>
       <c r="B45" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3813559322033898</v>
+        <v>0.4067796610169492</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.3360655737704918</v>
       </c>
       <c r="B46" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3898305084745763</v>
+        <v>0.4067796610169492</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.3360655737704918</v>
       </c>
       <c r="B47" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3898305084745763</v>
+        <v>0.4152542372881356</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="B48" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3983050847457627</v>
+        <v>0.4152542372881356</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.4016393442622951</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="B49" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3983050847457627</v>
+        <v>0.423728813559322</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.4016393442622951</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="B50" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4067796610169492</v>
+        <v>0.423728813559322</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="B51" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4067796610169492</v>
+        <v>0.4322033898305085</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="B52" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4406779661016949</v>
+        <v>0.4322033898305085</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.459016393442623</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="B53" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C53" t="n">
         <v>0.4406779661016949</v>
@@ -2556,21 +3771,21 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.459016393442623</v>
+        <v>0.3852459016393442</v>
       </c>
       <c r="B54" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4491525423728814</v>
+        <v>0.4406779661016949</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4672131147540984</v>
+        <v>0.3852459016393442</v>
       </c>
       <c r="B55" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C55" t="n">
         <v>0.4491525423728814</v>
@@ -2578,87 +3793,87 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4672131147540984</v>
+        <v>0.4016393442622951</v>
       </c>
       <c r="B56" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4661016949152542</v>
+        <v>0.4491525423728814</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.5</v>
+        <v>0.4016393442622951</v>
       </c>
       <c r="B57" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4661016949152542</v>
+        <v>0.4576271186440678</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.5</v>
+        <v>0.4180327868852459</v>
       </c>
       <c r="B58" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4915254237288136</v>
+        <v>0.4576271186440678</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.5245901639344263</v>
+        <v>0.4180327868852459</v>
       </c>
       <c r="B59" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4915254237288136</v>
+        <v>0.4661016949152542</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.5245901639344263</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="B60" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5</v>
+        <v>0.4661016949152542</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.5327868852459017</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="B61" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5</v>
+        <v>0.4915254237288136</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5327868852459017</v>
+        <v>0.4344262295081967</v>
       </c>
       <c r="B62" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5254237288135594</v>
+        <v>0.4915254237288136</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.4344262295081967</v>
       </c>
       <c r="B63" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C63" t="n">
         <v>0.5254237288135594</v>
@@ -2666,208 +3881,208 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.4672131147540984</v>
       </c>
       <c r="B64" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C64" t="n">
-        <v>0.559322033898305</v>
+        <v>0.5254237288135594</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5737704918032787</v>
+        <v>0.4672131147540984</v>
       </c>
       <c r="B65" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C65" t="n">
-        <v>0.559322033898305</v>
+        <v>0.5338983050847458</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5737704918032787</v>
+        <v>0.4836065573770492</v>
       </c>
       <c r="B66" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5677966101694916</v>
+        <v>0.5338983050847458</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5901639344262295</v>
+        <v>0.4836065573770492</v>
       </c>
       <c r="B67" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5677966101694916</v>
+        <v>0.559322033898305</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5901639344262295</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="B68" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5847457627118644</v>
+        <v>0.559322033898305</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.6311475409836066</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="B69" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5847457627118644</v>
+        <v>0.5677966101694916</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.6311475409836066</v>
+        <v>0.5491803278688525</v>
       </c>
       <c r="B70" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6101694915254238</v>
+        <v>0.5677966101694916</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5491803278688525</v>
       </c>
       <c r="B71" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6101694915254238</v>
+        <v>0.576271186440678</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.639344262295082</v>
+        <v>0.5655737704918032</v>
       </c>
       <c r="B72" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6186440677966102</v>
+        <v>0.576271186440678</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6475409836065574</v>
+        <v>0.5655737704918032</v>
       </c>
       <c r="B73" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6186440677966102</v>
+        <v>0.5847457627118644</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6475409836065574</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="B74" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6271186440677966</v>
+        <v>0.5847457627118644</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6885245901639344</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="B75" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6271186440677966</v>
+        <v>0.635593220338983</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6885245901639344</v>
+        <v>0.6147540983606558</v>
       </c>
       <c r="B76" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6440677966101694</v>
+        <v>0.635593220338983</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6967213114754098</v>
+        <v>0.6147540983606558</v>
       </c>
       <c r="B77" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6440677966101694</v>
+        <v>0.6610169491525424</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.6967213114754098</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="B78" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6694915254237288</v>
+        <v>0.6610169491525424</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7049180327868853</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="B79" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6694915254237288</v>
+        <v>0.6779661016949152</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.7049180327868853</v>
+        <v>0.6311475409836066</v>
       </c>
       <c r="B80" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6864406779661016</v>
+        <v>0.6779661016949152</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.7295081967213115</v>
+        <v>0.6311475409836066</v>
       </c>
       <c r="B81" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6864406779661016</v>
+        <v>0.6949152542372882</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.7295081967213115</v>
+        <v>0.6475409836065574</v>
       </c>
       <c r="B82" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C82" t="n">
         <v>0.6949152542372882</v>
@@ -2875,43 +4090,43 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.7377049180327869</v>
+        <v>0.6475409836065574</v>
       </c>
       <c r="B83" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.7372881355932204</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.7377049180327869</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="B84" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C84" t="n">
-        <v>0.711864406779661</v>
+        <v>0.7372881355932204</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.7540983606557377</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="B85" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C85" t="n">
-        <v>0.711864406779661</v>
+        <v>0.7457627118644068</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7540983606557377</v>
+        <v>0.6639344262295082</v>
       </c>
       <c r="B86" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C86" t="n">
         <v>0.7457627118644068</v>
@@ -2919,43 +4134,43 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7622950819672131</v>
+        <v>0.6639344262295082</v>
       </c>
       <c r="B87" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7457627118644068</v>
+        <v>0.7627118644067796</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7622950819672131</v>
+        <v>0.680327868852459</v>
       </c>
       <c r="B88" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7542372881355932</v>
+        <v>0.7627118644067796</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.7704918032786885</v>
+        <v>0.680327868852459</v>
       </c>
       <c r="B89" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7542372881355932</v>
+        <v>0.7796610169491526</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.7704918032786885</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="B90" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C90" t="n">
         <v>0.7796610169491526</v>
@@ -2963,309 +4178,243 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.7950819672131147</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="B91" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7796610169491526</v>
+        <v>0.7966101694915254</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.7950819672131147</v>
+        <v>0.6967213114754098</v>
       </c>
       <c r="B92" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C92" t="n">
-        <v>0.788135593220339</v>
+        <v>0.7966101694915254</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.8114754098360656</v>
+        <v>0.6967213114754098</v>
       </c>
       <c r="B93" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C93" t="n">
-        <v>0.788135593220339</v>
+        <v>0.8305084745762712</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.8114754098360656</v>
+        <v>0.7131147540983607</v>
       </c>
       <c r="B94" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7966101694915254</v>
+        <v>0.8305084745762712</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.819672131147541</v>
+        <v>0.7131147540983607</v>
       </c>
       <c r="B95" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7966101694915254</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.819672131147541</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="B96" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8050847457627118</v>
+        <v>0.847457627118644</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.8278688524590164</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="B97" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8050847457627118</v>
+        <v>0.8983050847457628</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.8278688524590164</v>
+        <v>0.8114754098360656</v>
       </c>
       <c r="B98" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8135593220338984</v>
+        <v>0.8983050847457628</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8442622950819673</v>
+        <v>0.8114754098360656</v>
       </c>
       <c r="B99" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8135593220338984</v>
+        <v>0.9067796610169492</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.8442622950819673</v>
+        <v>0.8524590163934426</v>
       </c>
       <c r="B100" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8220338983050848</v>
+        <v>0.9067796610169492</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.8770491803278688</v>
+        <v>0.8524590163934426</v>
       </c>
       <c r="B101" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8220338983050848</v>
+        <v>0.9152542372881356</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8770491803278688</v>
+        <v>0.860655737704918</v>
       </c>
       <c r="B102" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8389830508474576</v>
+        <v>0.9152542372881356</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8852459016393442</v>
+        <v>0.860655737704918</v>
       </c>
       <c r="B103" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8389830508474576</v>
+        <v>0.9322033898305084</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.8852459016393442</v>
+        <v>0.9590163934426229</v>
       </c>
       <c r="B104" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C104" t="n">
-        <v>0.847457627118644</v>
+        <v>0.9322033898305084</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.9016393442622951</v>
+        <v>0.9590163934426229</v>
       </c>
       <c r="B105" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C105" t="n">
-        <v>0.847457627118644</v>
+        <v>0.9745762711864406</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.9016393442622951</v>
+        <v>0.9672131147540983</v>
       </c>
       <c r="B106" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8898305084745762</v>
+        <v>0.9745762711864406</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.9098360655737705</v>
+        <v>0.9672131147540983</v>
       </c>
       <c r="B107" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8898305084745762</v>
+        <v>0.9830508474576272</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9098360655737705</v>
+        <v>0.9754098360655737</v>
       </c>
       <c r="B108" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9152542372881356</v>
+        <v>0.9830508474576272</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.9262295081967213</v>
+        <v>0.9754098360655737</v>
       </c>
       <c r="B109" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9152542372881356</v>
+        <v>0.9915254237288136</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.9262295081967213</v>
+        <v>0.9918032786885246</v>
       </c>
       <c r="B110" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9576271186440678</v>
+        <v>0.9915254237288136</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.9590163934426229</v>
+        <v>0.9918032786885246</v>
       </c>
       <c r="B111" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9576271186440678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.9590163934426229</v>
+        <v>1</v>
       </c>
       <c r="B112" t="n">
-        <v>0.486246179494304</v>
+        <v>0.5636982495137537</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9661016949152542</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="n">
-        <v>0.9672131147540983</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.486246179494304</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.9661016949152542</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="n">
-        <v>0.9672131147540983</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.486246179494304</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.9830508474576272</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="n">
-        <v>0.9836065573770492</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.486246179494304</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.9830508474576272</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="n">
-        <v>0.9836065573770492</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.486246179494304</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.9915254237288136</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="n">
-        <v>1</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.486246179494304</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.9915254237288136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="n">
-        <v>1</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.486246179494304</v>
-      </c>
-      <c r="C118" t="n">
         <v>1</v>
       </c>
     </row>
